--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,61 +851,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1474,24 +1474,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,71 +1651,71 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>987</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,221 +1981,221 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>877</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份10月10日被沪股通减持1.61万股</t>
+          <t>文灿股份10月12日被沪股通减持4.56万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 08:01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1233836583.html</t>
+          <t>/news,603348,1234647613.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
+          <t>文灿股份10月11日被沪股通减持48.27万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 07:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1233317262.html</t>
+          <t>/news,603348,1234213462.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份09月29日获沪股通增持23.68万股</t>
+          <t>文灿股份10月10日被沪股通减持1.61万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-30 07:53</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1232536590.html</t>
+          <t>/news,603348,1233836583.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份09月28日被沪股通减持2.15万股</t>
+          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1232087718.html</t>
+          <t>/news,603348,1233317262.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份09月27日被沪股通减持6.27万股</t>
+          <t>文灿股份09月29日获沪股通增持23.68万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-30 07:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1231637514.html</t>
+          <t>/news,603348,1232536590.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份09月26日获沪股通增持38.13万股</t>
+          <t>文灿股份09月28日被沪股通减持2.15万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-27 07:55</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1231248251.html</t>
+          <t>/news,603348,1232087718.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份1亿元于重庆设立新公司 经营范围含模具制造</t>
+          <t>文灿股份09月27日被沪股通减持6.27万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-26 09:55</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1230863379.html</t>
+          <t>/news,603348,1231637514.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5465.96万元，居汽车零部件板块第二</t>
+          <t>文灿股份09月26日获沪股通增持38.13万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-27 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1230722959.html</t>
+          <t>/news,603348,1231248251.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份09月23日被沪股通减持6.82万股</t>
+          <t>文灿股份1亿元于重庆设立新公司 经营范围含模具制造</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-24 07:54</t>
+          <t>09-26 09:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1230641366.html</t>
+          <t>/news,603348,1230863379.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：持续布局重点地区 一体化压铸即将量产</t>
+          <t>文灿股份本周沪股通持股市值增加5465.96万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 11:04</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1230382087.html</t>
+          <t>/news,603348,1230722959.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份09月23日被沪股通减持6.82万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 10:50</t>
+          <t>09-24 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1230364966.html</t>
+          <t>/news,603348,1230641366.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份09月22日被沪股通减持3.56万股</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：持续布局重点地区 一体化压铸即将量产</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-23 11:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1230234038.html</t>
+          <t>/news,603348,1230382087.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份09月21日获沪股通增持5.23万股</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-22 07:59</t>
+          <t>09-23 10:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1229812117.html</t>
+          <t>/news,603348,1230364966.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份09月20日获沪股通增持45.93万股</t>
+          <t>文灿股份09月22日被沪股通减持3.56万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-21 07:57</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1229383798.html</t>
+          <t>/news,603348,1230234038.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1538,24 +1538,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,71 +1715,71 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>989</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,221 +2045,221 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>877</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份10月10日被沪股通减持1.61万股</t>
+          <t>文灿股份10月12日被沪股通减持4.56万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 08:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1233836583.html</t>
+          <t>/news,603348,1234647613.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
+          <t>文灿股份10月11日被沪股通减持48.27万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1233317262.html</t>
+          <t>/news,603348,1234213462.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份09月29日获沪股通增持23.68万股</t>
+          <t>文灿股份10月10日被沪股通减持1.61万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 07:53</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1232536590.html</t>
+          <t>/news,603348,1233836583.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份09月28日被沪股通减持2.15万股</t>
+          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1232087718.html</t>
+          <t>/news,603348,1233317262.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份09月27日被沪股通减持6.27万股</t>
+          <t>文灿股份09月29日获沪股通增持23.68万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-30 07:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1231637514.html</t>
+          <t>/news,603348,1232536590.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份09月26日获沪股通增持38.13万股</t>
+          <t>文灿股份09月28日被沪股通减持2.15万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-27 07:55</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1231248251.html</t>
+          <t>/news,603348,1232087718.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份1亿元于重庆设立新公司 经营范围含模具制造</t>
+          <t>文灿股份09月27日被沪股通减持6.27万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-26 09:55</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1230863379.html</t>
+          <t>/news,603348,1231637514.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5465.96万元，居汽车零部件板块第二</t>
+          <t>文灿股份09月26日获沪股通增持38.13万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-27 07:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1230722959.html</t>
+          <t>/news,603348,1231248251.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份09月23日被沪股通减持6.82万股</t>
+          <t>文灿股份1亿元于重庆设立新公司 经营范围含模具制造</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-24 07:54</t>
+          <t>09-26 09:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1230641366.html</t>
+          <t>/news,603348,1230863379.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：持续布局重点地区 一体化压铸即将量产</t>
+          <t>文灿股份本周沪股通持股市值增加5465.96万元，居汽车零部件板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-23 11:04</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1230382087.html</t>
+          <t>/news,603348,1230722959.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份09月23日被沪股通减持6.82万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-23 10:50</t>
+          <t>09-24 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1230364966.html</t>
+          <t>/news,603348,1230641366.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份09月22日被沪股通减持3.56万股</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：持续布局重点地区 一体化压铸即将量产</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-23 11:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1230234038.html</t>
+          <t>/news,603348,1230382087.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份10月10日被沪股通减持1.61万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1233836583.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1233317262.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份09月29日获沪股通增持23.68万股</t>
+          <t>文灿股份10月12日被沪股通减持4.56万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-30 07:53</t>
+          <t>10-13 08:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1232536590.html</t>
+          <t>/news,603348,1234647613.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份09月28日被沪股通减持2.15万股</t>
+          <t>文灿股份10月11日被沪股通减持48.27万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>10-12 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1232087718.html</t>
+          <t>/news,603348,1234213462.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份09月27日被沪股通减持6.27万股</t>
+          <t>文灿股份10月10日被沪股通减持1.61万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1231637514.html</t>
+          <t>/news,603348,1233836583.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份09月26日获沪股通增持38.13万股</t>
+          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-27 07:55</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1231248251.html</t>
+          <t>/news,603348,1233317262.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份1亿元于重庆设立新公司 经营范围含模具制造</t>
+          <t>文灿股份09月29日获沪股通增持23.68万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-26 09:55</t>
+          <t>09-30 07:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1230863379.html</t>
+          <t>/news,603348,1232536590.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5465.96万元，居汽车零部件板块第二</t>
+          <t>文灿股份09月28日被沪股通减持2.15万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1230722959.html</t>
+          <t>/news,603348,1232087718.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份09月23日被沪股通减持6.82万股</t>
+          <t>文灿股份09月27日被沪股通减持6.27万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-24 07:54</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1230641366.html</t>
+          <t>/news,603348,1231637514.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：持续布局重点地区 一体化压铸即将量产</t>
+          <t>文灿股份09月26日获沪股通增持38.13万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-23 11:04</t>
+          <t>09-27 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1230382087.html</t>
+          <t>/news,603348,1231248251.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1730,24 +1730,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>994</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,221 +2237,221 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份10月10日被沪股通减持1.61万股</t>
+          <t>文灿股份10月12日被沪股通减持4.56万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 08:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1233836583.html</t>
+          <t>/news,603348,1234647613.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
+          <t>文灿股份10月11日被沪股通减持48.27万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1233317262.html</t>
+          <t>/news,603348,1234213462.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份09月29日获沪股通增持23.68万股</t>
+          <t>文灿股份10月10日被沪股通减持1.61万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 07:53</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1232536590.html</t>
+          <t>/news,603348,1233836583.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份09月28日被沪股通减持2.15万股</t>
+          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1232087718.html</t>
+          <t>/news,603348,1233317262.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份09月27日被沪股通减持6.27万股</t>
+          <t>文灿股份09月29日获沪股通增持23.68万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-30 07:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1231637514.html</t>
+          <t>/news,603348,1232536590.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份09月26日获沪股通增持38.13万股</t>
+          <t>文灿股份09月28日被沪股通减持2.15万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-27 07:55</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1231248251.html</t>
+          <t>/news,603348,1232087718.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,61 +1171,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1794,24 +1794,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,71 +1971,71 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,221 +2301,221 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份10月10日被沪股通减持1.61万股</t>
+          <t>文灿股份10月12日被沪股通减持4.56万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 08:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1233836583.html</t>
+          <t>/news,603348,1234647613.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
+          <t>文灿股份10月11日被沪股通减持48.27万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 07:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1233317262.html</t>
+          <t>/news,603348,1234213462.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份09月29日获沪股通增持23.68万股</t>
+          <t>文灿股份10月10日被沪股通减持1.61万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 07:53</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1232536590.html</t>
+          <t>/news,603348,1233836583.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份09月28日被沪股通减持2.15万股</t>
+          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1232087718.html</t>
+          <t>/news,603348,1233317262.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,61 +627,61 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1858,24 +1858,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,71 +2035,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,221 +2365,221 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份10月10日被沪股通减持1.61万股</t>
+          <t>文灿股份10月12日被沪股通减持4.56万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 08:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1233836583.html</t>
+          <t>/news,603348,1234647613.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加3983.18万元，居汽车零部件板块第五</t>
+          <t>文灿股份10月11日被沪股通减持48.27万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1233317262.html</t>
+          <t>/news,603348,1234213462.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,61 +691,61 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1922,24 +1922,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,71 +2099,71 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,221 +2429,221 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 15:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235584191.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235575526.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份10月12日被沪股通减持4.56万股</t>
+          <t>文灿股份10月14日获沪股通增持2.33万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 08:01</t>
+          <t>10-15 07:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1234647613.html</t>
+          <t>/news,603348,1235512655.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份10月11日被沪股通减持48.27万股</t>
+          <t>文灿股份10月13日被沪股通减持43.73万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:54</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1234213462.html</t>
+          <t>/news,603348,1235083243.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,51 +829,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,83 +2173,83 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份：预计2022年前三季度净利润为2.4亿元~2.7亿元 同比增加248.71%~292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-16 15:50</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1235584191.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7178.89万元，居汽车零部件板块第五</t>
+          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-16 17:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1235575526.html</t>
+          <t>/news,603348,1235589840.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份10月14日获沪股通增持2.33万股</t>
+          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-15 07:59</t>
+          <t>10-16 17:18</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1235512655.html</t>
+          <t>/news,603348,1235589062.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份10月13日被沪股通减持43.73万股</t>
+          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 16:22</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1235083243.html</t>
+          <t>/news,603348,1235585951.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,83 +829,83 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
@@ -942,34 +942,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,93 +2397,93 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-17 07:21</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235643429.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份：新能源汽车客户及其产品收入占比提高 预计前三季度归母净利润同比增248.71%到292.29%</t>
+          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 17:28</t>
+          <t>10-16 19:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1235589840.html</t>
+          <t>/news,603348,1235599330.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份：预计前三季度净利同比增加248.71%-292.29%</t>
+          <t>文灿股份前三季度业绩预增249%到292%。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 17:18</t>
+          <t>10-16 18:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1235589062.html</t>
+          <t>/news,603348,1235593898.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：预计22年前三季度归母净利润同比增长248.71%至292.29%</t>
+          <t>文灿股份：前三季度净利预增248%至292%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-16 16:22</t>
+          <t>10-16 17:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1235585951.html</t>
+          <t>/news,603348,1235589838.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>968</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,61 +1523,61 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,39 +2067,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,83 +2397,83 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 07:21</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1235643429.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>新能源汽车客户贡献收入提升 文灿股份前三季度净利润预增249%</t>
+          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 19:36</t>
+          <t>10-17 15:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1235599330.html</t>
+          <t>/news,603348,1235912332.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份前三季度业绩预增249%到292%。</t>
+          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 18:41</t>
+          <t>10-17 10:27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1235593898.html</t>
+          <t>/news,603348,1235750551.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：前三季度净利预增248%至292%</t>
+          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-16 17:32</t>
+          <t>10-17 07:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1235589838.html</t>
+          <t>/news,603348,1235644307.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,83 +1053,83 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235948924.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>开源证券维持文灿股份买入(Buy)评级 预计2022年净利润同比增长297.25%</t>
+          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 15:07</t>
+          <t>10-17 17:10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1235912332.html</t>
+          <t>/news,603348,1235944833.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>一体化压铸概念股下挫 文灿股份触及跌停</t>
+          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 10:27</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1235750551.html</t>
+          <t>/news,603348,1235915628.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级：业绩加速增长 一体压铸引领行业</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 07:32</t>
+          <t>10-17 15:10</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1235644307.html</t>
+          <t>/news,603348,1235913429.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,22 +947,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,61 +1747,61 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,93 +2109,93 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,83 +2621,83 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份盘中一度跌停 机构资金现分歧</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 17:31</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1235948924.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，文灿股份下跌9.22%（10-17）</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 17:10</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1235944833.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>开源证券给予文灿股份买入评级 公司信息更新报告：2022年前三季度业绩略超预期 一体压铸放量在即</t>
+          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 20:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1235915628.html</t>
+          <t>/news,603348,1235979146.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 15:10</t>
+          <t>10-17 17:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1235913429.html</t>
+          <t>/news,603348,1235949544.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1481,7 +1481,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2089,7 +2089,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2185,7 +2185,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,61 +1331,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,61 +1939,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2562,24 +2562,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,71 +2739,71 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-18 14:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236309853.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 新能源业务+百炼集团持续发力 Q3净利润创历史新高</t>
+          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 20:02</t>
+          <t>10-18 14:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1235979146.html</t>
+          <t>/news,603348,1236300975.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份(603348)龙虎榜数据(10-17)</t>
+          <t>文灿股份10月17日被沪股通减持43.98万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 17:35</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1235949544.html</t>
+          <t>/news,603348,1236042941.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,83 +1341,83 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东吴证券给予文灿股份买入评级 2022年Q3业绩预告点评：产品结构优化 海外整合完成 推动业绩超预期！</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 14:54</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1236309853.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东吴证券维持文灿股份买入评级 预计2022年净利润同比增长293.13%</t>
+          <t>文灿股份10月19日获沪股通增持82.79万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 14:45</t>
+          <t>10-20 07:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1236300975.html</t>
+          <t>/news,603348,1236890246.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份10月17日被沪股通减持43.98万股</t>
+          <t>文灿股份10月18日获沪股通增持30.83万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1236042941.html</t>
+          <t>/news,603348,1236441217.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,61 +861,61 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,61 +1491,61 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,61 +2099,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2722,24 +2722,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,71 +2899,71 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份10月19日获沪股通增持82.79万股</t>
+          <t>文灿股份10月20日被沪股通减持39.43万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 07:57</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1236890246.html</t>
+          <t>/news,603348,1237347485.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份10月18日获沪股通增持30.83万股</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 09:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1236441217.html</t>
+          <t>/news,603348,1236954664.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,61 +861,61 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,61 +1139,61 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,61 +1555,61 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,61 +2163,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-27 07:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1239494455.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1239020857.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-26 09:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1239007346.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>文灿股份10月25日获沪股通增持68.01万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1238968109.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-26 07:33</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1238966004.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-25 22:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1238921887.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1238869978.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-25 19:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1238869632.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2786,24 +2786,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1238869153.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>注意！文灿股份将于11月11日召开股东大会</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1238869146.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1238868949.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1384</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-25 19:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1238865794.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份10月24日被沪股通减持43.23万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1238448699.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-25 07:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1238446105.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份10月20日被沪股通减持39.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1237347485.html</t>
+          <t>/news,603348,1237860225.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月21日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 09:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1236954664.html</t>
+          <t>/news,603348,1237797120.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,83 +1565,83 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,61 +2003,61 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,22 +2131,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,61 +2515,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入698.48万元，融资余额1321.06万元（10-26）</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 07:31</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1239494455.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华西证券给予文灿股份买入评级 系列点评二十：定增助力扩产一体压铸引领行业</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 09:33</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1239020857.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 09:31</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1239007346.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月25日获沪股通增持68.01万股</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1238968109.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还66.8万元，融资余额622.57万元（10-25）</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 07:33</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1238966004.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份拟定增募资不超35亿元 加码新能源汽车零部件智能制造项目</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 22:56</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1238921887.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超35亿元 用于多个新能源汽车零部件智能制造项目</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 19:45</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1238869978.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份：拟募资不超35亿元 用于新能源汽车零部件智能制造项目</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 19:41</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1238869632.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：未来三年股东分红回报规划</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1238869153.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>注意！文灿股份将于11月11日召开股东大会</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1238869146.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份：拟非公开增发募资不超过35亿元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1238868949.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份：拟定增募资不超过35亿元用于新能源汽车零部件智能制造项目</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 19:31</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1238865794.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份10月24日被沪股通减持43.23万股</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1238448699.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入689.37万元，融资余额689.37万元（10-24）</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 07:39</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1238446105.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加5124.43万元，居汽车零部件板块第四</t>
+          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1237860225.html</t>
+          <t>/news,603348,1239929594.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份10月21日获沪股通增持39.36万股</t>
+          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-27 19:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1237797120.html</t>
+          <t>/news,603348,1239929592.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,61 +1715,61 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,61 +2131,61 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份：董事会决定不提前赎回“文灿转债”</t>
+          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 20:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1239929594.html</t>
+          <t>/news,603348,1239966875.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润约2.59亿元</t>
+          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 19:04</t>
+          <t>10-27 19:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1239929592.html</t>
+          <t>/news,603348,1239940521.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,61 +947,61 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,61 +2803,61 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份股东户数下降6.53%，户均持股125.37万元</t>
+          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 20:54</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1239966875.html</t>
+          <t>/news,603348,1240047549.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：2022年前三季度净利润同比增长275.8%</t>
+          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 19:47</t>
+          <t>10-28 06:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1239940521.html</t>
+          <t>/news,603348,1240039706.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入214.35万元，融资余额1535.41万元（10-27）</t>
+          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 15:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1240047549.html</t>
+          <t>/news,603348,1240424031.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>【图解季报】文灿股份：2022年前三季度归母净利润同比翻近3倍，约为2.6亿元</t>
+          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 06:31</t>
+          <t>10-28 09:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1240039706.html</t>
+          <t>/news,603348,1240093819.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份12月07日被沪股通减持29.91万股</t>
+          <t>文灿股份12月08日被沪股通减持7.87万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1256758199.html</t>
+          <t>/news,603348,1257395167.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
+          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-09 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1256752560.html</t>
+          <t>/news,603348,1257390647.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,61 +1907,61 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240597487.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-28 20:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240533607.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中金公司维持文灿股份跑赢行业评级 目标价91元</t>
+          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 15:05</t>
+          <t>10-28 20:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1240424031.html</t>
+          <t>/news,603348,1240532307.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华西证券维持文灿股份买入评级 预计2022年净利润同比增长307.54%</t>
+          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 09:37</t>
+          <t>10-28 19:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1240093819.html</t>
+          <t>/news,603348,1240518701.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份12月08日被沪股通减持7.87万股</t>
+          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1257395167.html</t>
+          <t>/news,603348,1258090115.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
+          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:37</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1257390647.html</t>
+          <t>/news,603348,1258081552.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份12月07日被沪股通减持29.91万股</t>
+          <t>文灿股份12月09日获沪股通增持12.48万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-10 07:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1256758199.html</t>
+          <t>/news,603348,1257966413.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
+          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-10 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1256752560.html</t>
+          <t>/news,603348,1257961922.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份12月08日被沪股通减持7.87万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1257395167.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-09 07:37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1257390647.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,61 +1523,61 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,61 +1971,61 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 22:23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1241266672.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1219.75万元（10-28）</t>
+          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1240597487.html</t>
+          <t>/news,603348,1240714536.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东莞证券维持文灿股份谨慎推荐评级 预计2022年净利润同比增长262.26%</t>
+          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 20:55</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1240533607.html</t>
+          <t>/news,603348,1240706368.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东莞证券给予文灿股份谨慎推荐评级：Q3业绩加速增长 协同效应渐入佳境</t>
+          <t>中信证券维持文灿股份买入评级 目标价99元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 20:41</t>
+          <t>10-30 10:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1240532307.html</t>
+          <t>/news,603348,1240694171.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>汽车轻量化打开一体化压铸蓝海市场  文灿股份前三季度净利同比增长275.8%</t>
+          <t>文灿股份10月28日被沪股通减持16.99万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 19:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1240518701.html</t>
+          <t>/news,603348,1240601341.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,71 +457,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
+          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 10:22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1258090115.html</t>
+          <t>/news,603348,1258867358.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
+          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-13 10:01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1258081552.html</t>
+          <t>/news,603348,1258838465.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份12月09日获沪股通增持12.48万股</t>
+          <t>文灿股份12月12日获沪股通增持13.94万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-10 07:58</t>
+          <t>12-13 08:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1257966413.html</t>
+          <t>/news,603348,1258762851.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
+          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:31</t>
+          <t>12-13 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1257961922.html</t>
+          <t>/news,603348,1258758768.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月08日被沪股通减持7.87万股</t>
+          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-12 20:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1257395167.html</t>
+          <t>/news,603348,1258639880.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,61 +627,61 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
+          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:37</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1257390647.html</t>
+          <t>/news,603348,1258090115.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份12月07日被沪股通减持29.91万股</t>
+          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1256758199.html</t>
+          <t>/news,603348,1258081552.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
+          <t>文灿股份12月09日获沪股通增持12.48万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-10 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1256752560.html</t>
+          <t>/news,603348,1257966413.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-10 07:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1257961922.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份12月08日被沪股通减持7.87万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1257395167.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-09 07:37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1257390647.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,71 +1395,71 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,71 +1811,71 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,83 +2461,83 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>信达证券发布文灿股份研报 Q3业绩符合预期 拟定增募资加码产能建设</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 22:23</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1241266672.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,61 +2899,61 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1842.33万元，居汽车零部件板块第二十</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1240714536.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加825.95万元，居汽车零部件板块第十</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1240706368.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中信证券维持文灿股份买入评级 目标价99元</t>
+          <t>文灿股份10月31日获沪股通增持9.06万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 10:43</t>
+          <t>11-01 07:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1240694171.html</t>
+          <t>/news,603348,1241298257.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份10月28日被沪股通减持16.99万股</t>
+          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1240601341.html</t>
+          <t>/news,603348,1241293898.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
+          <t>文灿股份12月13日被沪股通减持24.64万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 10:22</t>
+          <t>12-14 07:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1258867358.html</t>
+          <t>/news,603348,1259348495.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
+          <t>文灿股份：连续3日融资净买入累计2429.48万元（12-13）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 10:01</t>
+          <t>12-14 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1258838465.html</t>
+          <t>/news,603348,1259344296.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>文灿股份12月12日获沪股通增持13.94万股</t>
+          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 08:00</t>
+          <t>12-13 10:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1258762851.html</t>
+          <t>/news,603348,1258867358.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
+          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:34</t>
+          <t>12-13 10:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1258758768.html</t>
+          <t>/news,603348,1258838465.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
+          <t>文灿股份12月12日获沪股通增持13.94万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 20:42</t>
+          <t>12-13 08:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1258639880.html</t>
+          <t>/news,603348,1258762851.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
+          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1258090115.html</t>
+          <t>/news,603348,1258758768.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
+          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-12 20:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1258081552.html</t>
+          <t>/news,603348,1258639880.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份12月09日获沪股通增持12.48万股</t>
+          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 07:58</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1257966413.html</t>
+          <t>/news,603348,1258090115.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
+          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-10 07:31</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1257961922.html</t>
+          <t>/news,603348,1258081552.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份12月08日被沪股通减持7.87万股</t>
+          <t>文灿股份12月09日获沪股通增持12.48万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-10 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1257395167.html</t>
+          <t>/news,603348,1257966413.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
+          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 07:37</t>
+          <t>12-10 07:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1257390647.html</t>
+          <t>/news,603348,1257961922.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份12月07日被沪股通减持29.91万股</t>
+          <t>文灿股份12月08日被沪股通减持7.87万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1256758199.html</t>
+          <t>/news,603348,1257395167.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
+          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-09 07:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1256752560.html</t>
+          <t>/news,603348,1257390647.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,61 +1427,61 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1243410293.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1243405472.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月04日被沪股通减持6.29万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1243320038.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1243316303.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份11月03日获沪股通增持11.61万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1242815889.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1242814112.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月02日获沪股通增持26.74万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1242326354.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1242322301.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份10月31日获沪股通增持9.06万股</t>
+          <t>文灿股份11月01日获沪股通增持27.9万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 07:59</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1241298257.html</t>
+          <t>/news,603348,1241800678.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1317.93万元（10-31）</t>
+          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1241293898.html</t>
+          <t>/news,603348,1241798959.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份12月13日被沪股通减持24.64万股</t>
+          <t>文灿股份：连续3日融资净偿还累计2469.8万元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 07:59</t>
+          <t>12-20 07:39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1259348495.html</t>
+          <t>/news,603348,1261722534.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2429.48万元（12-13）</t>
+          <t>文灿股份12月19日获沪股通增持1.68万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,83 +509,83 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:35</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1259344296.html</t>
+          <t>/news,603348,1261721558.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入315.66万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 10:22</t>
+          <t>12-18 15:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1258867358.html</t>
+          <t>/news,603348,1261086710.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
+          <t>文灿股份本周沪股通持股市值减少2958.67万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 10:01</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1258838465.html</t>
+          <t>/news,603348,1261080662.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月12日获沪股通增持13.94万股</t>
+          <t>文灿股份12月16日被沪股通减持53.88万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-13 08:00</t>
+          <t>12-17 07:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1258762851.html</t>
+          <t>/news,603348,1260975547.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
+          <t>文灿股份：融资净偿还331.44万元，融资余额1.15亿元（12-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-13 07:34</t>
+          <t>12-17 07:32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1258758768.html</t>
+          <t>/news,603348,1260973373.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
+          <t>文灿股份12月15日获沪股通增持23万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-12 20:42</t>
+          <t>12-16 07:58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1258639880.html</t>
+          <t>/news,603348,1260478822.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,61 +691,61 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
+          <t>文灿股份：融资净偿还277.11万元，融资余额1.18亿元（12-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-16 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1258090115.html</t>
+          <t>/news,603348,1260474111.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
+          <t>文灿股份12月14日被沪股通减持8.64万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-15 07:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1258081552.html</t>
+          <t>/news,603348,1259933607.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份12月09日获沪股通增持12.48万股</t>
+          <t>文灿股份：连续4日融资净买入累计2675.09万元（12-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-10 07:58</t>
+          <t>12-15 07:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1257966413.html</t>
+          <t>/news,603348,1259929933.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
+          <t>文灿股份12月13日被沪股通减持24.64万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-10 07:31</t>
+          <t>12-14 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1257961922.html</t>
+          <t>/news,603348,1259348495.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份12月08日被沪股通减持7.87万股</t>
+          <t>文灿股份：连续3日融资净买入累计2429.48万元（12-13）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-14 07:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1257395167.html</t>
+          <t>/news,603348,1259344296.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
+          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-09 07:37</t>
+          <t>12-13 10:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1257390647.html</t>
+          <t>/news,603348,1258867358.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文灿股份12月07日被沪股通减持29.91万股</t>
+          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-13 10:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1256758199.html</t>
+          <t>/news,603348,1258838465.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
+          <t>文灿股份12月12日获沪股通增持13.94万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-13 08:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1256752560.html</t>
+          <t>/news,603348,1258762851.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-13 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1258758768.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-12 20:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1258639880.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1258090115.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1258081552.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月09日获沪股通增持12.48万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-10 07:58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1257966413.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-10 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1257961922.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份12月08日被沪股通减持7.87万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1257395167.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-09 07:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1257390647.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,71 +2355,71 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入445.4万元</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1243410293.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加4779.84万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1243405472.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份11月04日被沪股通减持6.29万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1243320038.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还346.84万元，融资余额2287.73万元（11-04）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1243316303.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份11月03日获沪股通增持11.61万股</t>
+          <t>文灿股份11月09日获沪股通增持11.95万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1242815889.html</t>
+          <t>/news,603348,1244892881.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入758.95万元，融资余额2634.56万元（11-03）</t>
+          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-10 07:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1242814112.html</t>
+          <t>/news,603348,1244888008.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份11月02日获沪股通增持26.74万股</t>
+          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1242326354.html</t>
+          <t>/news,603348,1244428348.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还179.35万元，融资余额1875.61万元（11-02）</t>
+          <t>文灿股份11月08日被沪股通减持6.95万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:34</t>
+          <t>11-09 07:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1242322301.html</t>
+          <t>/news,603348,1244427851.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份11月01日获沪股通增持27.9万股</t>
+          <t>文灿股份11月07日被沪股通减持44.31万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-08 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1241800678.html</t>
+          <t>/news,603348,1243974130.html</t>
         </is>
       </c>
     </row>
@@ -2990,12 +2990,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计1432.38万元（11-01）</t>
+          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1241798959.html</t>
+          <t>/news,603348,1243971775.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603348.xlsx
+++ b/news_ann/news/tmp/603348.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净偿还累计2469.8万元（12-19）</t>
+          <t>文灿股份：融资净偿还185.33万元，融资余额1.05亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:39</t>
+          <t>12-23 07:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603348,1261722534.html</t>
+          <t>/news,603348,1263191177.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>文灿股份12月19日获沪股通增持1.68万股</t>
+          <t>文灿股份12月22日被沪股通减持1.01万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:33</t>
+          <t>12-23 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603348,1261721558.html</t>
+          <t>/news,603348,1263188706.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入315.66万元</t>
+          <t>文灿股份12月21日被沪股通减持52.3万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 15:06</t>
+          <t>12-22 07:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603348,1261086710.html</t>
+          <t>/news,603348,1262669930.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少2958.67万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入238.13万元，融资余额1.07亿元（12-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 14:05</t>
+          <t>12-22 07:26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603348,1261080662.html</t>
+          <t>/news,603348,1262666692.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>文灿股份12月16日被沪股通减持53.88万股</t>
+          <t>文灿股份12月20日被沪股通减持33.51万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-17 07:49</t>
+          <t>12-21 07:39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603348,1260975547.html</t>
+          <t>/news,603348,1262196447.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还331.44万元，融资余额1.15亿元（12-16）</t>
+          <t>文灿股份：融资净买入830.56万元，融资余额1.04亿元（12-20）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:32</t>
+          <t>12-21 07:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603348,1260973373.html</t>
+          <t>/news,603348,1262193916.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文灿股份12月15日获沪股通增持23万股</t>
+          <t>文灿股份：连续3日融资净偿还累计2469.8万元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 07:58</t>
+          <t>12-20 07:39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603348,1260478822.html</t>
+          <t>/news,603348,1261722534.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还277.11万元，融资余额1.18亿元（12-15）</t>
+          <t>文灿股份12月19日获沪股通增持1.68万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 07:32</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603348,1260474111.html</t>
+          <t>/news,603348,1261721558.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>文灿股份12月14日被沪股通减持8.64万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入315.66万元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 07:51</t>
+          <t>12-18 15:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603348,1259933607.html</t>
+          <t>/news,603348,1261086710.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计2675.09万元（12-14）</t>
+          <t>文灿股份本周沪股通持股市值减少2958.67万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 07:33</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603348,1259929933.html</t>
+          <t>/news,603348,1261080662.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文灿股份12月13日被沪股通减持24.64万股</t>
+          <t>文灿股份12月16日被沪股通减持53.88万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 07:59</t>
+          <t>12-17 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603348,1259348495.html</t>
+          <t>/news,603348,1260975547.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2429.48万元（12-13）</t>
+          <t>文灿股份：融资净偿还331.44万元，融资余额1.15亿元（12-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-14 07:35</t>
+          <t>12-17 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603348,1259344296.html</t>
+          <t>/news,603348,1260973373.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
+          <t>文灿股份12月15日获沪股通增持23万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,61 +861,61 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-13 10:22</t>
+          <t>12-16 07:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603348,1258867358.html</t>
+          <t>/news,603348,1260478822.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
+          <t>文灿股份：融资净偿还277.11万元，融资余额1.18亿元（12-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-13 10:01</t>
+          <t>12-16 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603348,1258838465.html</t>
+          <t>/news,603348,1260474111.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文灿股份12月12日获沪股通增持13.94万股</t>
+          <t>文灿股份12月14日被沪股通减持8.64万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 08:00</t>
+          <t>12-15 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603348,1258762851.html</t>
+          <t>/news,603348,1259933607.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
+          <t>文灿股份：连续4日融资净买入累计2675.09万元（12-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-13 07:34</t>
+          <t>12-15 07:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603348,1258758768.html</t>
+          <t>/news,603348,1259929933.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
+          <t>文灿股份12月13日被沪股通减持24.64万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-12 20:42</t>
+          <t>12-14 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603348,1258639880.html</t>
+          <t>/news,603348,1259348495.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,93 +1011,93 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
+          <t>文灿股份：连续3日融资净买入累计2429.48万元（12-13）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-14 07:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603348,1258090115.html</t>
+          <t>/news,603348,1259344296.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>921</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
+          <t>天风证券给予文灿股份增持评级：汽车轻量化行业领军者 领跑一体化压铸赛道</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-13 10:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603348,1258081552.html</t>
+          <t>/news,603348,1258867358.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>文灿股份12月09日获沪股通增持12.48万股</t>
+          <t>天风证券首次给予文灿股份增持评级 目标价70.28元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-10 07:58</t>
+          <t>12-13 10:01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603348,1257966413.html</t>
+          <t>/news,603348,1258838465.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
+          <t>文灿股份12月12日获沪股通增持13.94万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-10 07:31</t>
+          <t>12-13 08:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603348,1257961922.html</t>
+          <t>/news,603348,1258762851.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>文灿股份12月08日被沪股通减持7.87万股</t>
+          <t>文灿股份：融资净买入153.89万元，融资余额1.13亿元（12-12）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-13 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603348,1257395167.html</t>
+          <t>/news,603348,1258758768.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
+          <t>文灿股份：子公司重庆文灿以6375万元拿地 用于开展重庆新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-09 07:37</t>
+          <t>12-12 20:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603348,1257390647.html</t>
+          <t>/news,603348,1258639880.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>文灿股份12月07日被沪股通减持29.91万股</t>
+          <t>文灿股份本周融资净买入1875.31万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-08 08:00</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603348,1256758199.html</t>
+          <t>/news,603348,1258090115.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
+          <t>文灿股份本周沪股通持股市值减少2231.37万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603348,1256752560.html</t>
+          <t>/news,603348,1258081552.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>文灿股份12月06日获沪股通增持7.73万股</t>
+          <t>文灿股份12月09日获沪股通增持12.48万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-07 07:54</t>
+          <t>12-10 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603348,1256092081.html</t>
+          <t>/news,603348,1257966413.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
+          <t>文灿股份：融资净买入1750.88万元，融资余额1.11亿元（12-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-07 07:35</t>
+          <t>12-10 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603348,1256088654.html</t>
+          <t>/news,603348,1257961922.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>文灿股份12月05日被沪股通减持17.46万股</t>
+          <t>文灿股份12月08日被沪股通减持7.87万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603348,1255449788.html</t>
+          <t>/news,603348,1257395167.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
+          <t>文灿股份：融资净偿还307.1万元，融资余额9374.7万元（12-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-09 07:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603348,1255445550.html</t>
+          <t>/news,603348,1257390647.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
+          <t>文灿股份12月07日被沪股通减持29.91万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-08 08:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603348,1254650236.html</t>
+          <t>/news,603348,1256758199.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
+          <t>文灿股份：融资净买入181.83万元，融资余额9681.8万元（12-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603348,1254643586.html</t>
+          <t>/news,603348,1256752560.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>文灿股份12月02日被沪股通减持17.97万股</t>
+          <t>文灿股份12月06日获沪股通增持7.73万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-07 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603348,1254511677.html</t>
+          <t>/news,603348,1256092081.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
+          <t>文灿股份：融资净买入350.3万元，融资余额9499.98万元（12-06）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-03 07:31</t>
+          <t>12-07 07:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603348,1254509478.html</t>
+          <t>/news,603348,1256088654.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>文灿股份12月01日被沪股通减持49.83万股</t>
+          <t>文灿股份12月05日被沪股通减持17.46万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-02 07:47</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603348,1253912603.html</t>
+          <t>/news,603348,1255449788.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
+          <t>文灿股份：融资净偿还100.59万元，融资余额9149.68万元（12-05）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-02 07:43</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603348,1253911966.html</t>
+          <t>/news,603348,1255445550.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>文灿股份11月30日获沪股通增持28.86万股</t>
+          <t>文灿股份本周融资净买入650.94万元，居汽车零部件板块第十九</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603348,1253301877.html</t>
+          <t>/news,603348,1254650236.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
+          <t>文灿股份本周被沪股通减持2.69万股 最新持股量483.04万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-01 07:31</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603348,1253298232.html</t>
+          <t>/news,603348,1254643586.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>文灿股份11月29日获沪股通增持35.61万股</t>
+          <t>文灿股份12月02日被沪股通减持17.97万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603348,1252778458.html</t>
+          <t>/news,603348,1254511677.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
+          <t>文灿股份：融资净买入376.89万元，融资余额9250.26万元（12-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-30 07:34</t>
+          <t>12-03 07:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603348,1252775419.html</t>
+          <t>/news,603348,1254509478.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>文灿股份11月28日沪股通持有量486.37万股</t>
+          <t>文灿股份12月01日被沪股通减持49.83万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-29 07:51</t>
+          <t>12-02 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603348,1252213346.html</t>
+          <t>/news,603348,1253912603.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
+          <t>文灿股份：融资净偿还308.24万元，融资余额8873.37万元（12-01）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-02 07:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603348,1252210024.html</t>
+          <t>/news,603348,1253911966.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
+          <t>文灿股份11月30日获沪股通增持28.86万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-27 15:08</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603348,1251590685.html</t>
+          <t>/news,603348,1253301877.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
+          <t>文灿股份：连续4日融资净买入累计589.34万元（11-30）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>12-01 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603348,1251584800.html</t>
+          <t>/news,603348,1253298232.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>文灿股份11月25日获沪股通增持19.73万股</t>
+          <t>文灿股份11月29日获沪股通增持35.61万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603348,1251434758.html</t>
+          <t>/news,603348,1252778458.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
+          <t>文灿股份：连续3日融资净买入累计395.85万元（11-29）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-26 07:36</t>
+          <t>11-30 07:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603348,1251431598.html</t>
+          <t>/news,603348,1252775419.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>文灿股份11月24日被沪股通减持7.57万股</t>
+          <t>文灿股份11月28日沪股通持有量486.37万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-29 07:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603348,1250944698.html</t>
+          <t>/news,603348,1252213346.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
+          <t>文灿股份：融资净买入191.25万元，融资余额8790.58万元（11-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 07:32</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603348,1250939475.html</t>
+          <t>/news,603348,1252210024.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>文灿股份11月23日获沪股通增持1.46万股</t>
+          <t>文灿股份本周融资净买入1635.17万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-27 15:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603348,1250421585.html</t>
+          <t>/news,603348,1251590685.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
+          <t>文灿股份本周沪股通持股市值增加887.33万元，居汽车零部件板块第十</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 07:41</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603348,1250418256.html</t>
+          <t>/news,603348,1251584800.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>文灿股份11月22日被沪股通减持1.3万股</t>
+          <t>文灿股份11月25日获沪股通增持19.73万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603348,1249875851.html</t>
+          <t>/news,603348,1251434758.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
+          <t>文灿股份：融资净买入7.04万元，融资余额8589.72万元（11-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 07:36</t>
+          <t>11-26 07:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603348,1249873140.html</t>
+          <t>/news,603348,1251431598.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
+          <t>文灿股份11月24日被沪股通减持7.57万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 16:11</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603348,1249698760.html</t>
+          <t>/news,603348,1250944698.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>文灿股份11月21日获沪股通增持1.88万股</t>
+          <t>文灿股份：融资净偿还205.03万元，融资余额8582.67万元（11-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-25 07:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603348,1249348058.html</t>
+          <t>/news,603348,1250939475.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
+          <t>文灿股份11月23日获沪股通增持1.46万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 07:34</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603348,1249345409.html</t>
+          <t>/news,603348,1250421585.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
+          <t>文灿股份：融资净买入22.52万元，融资余额8787.7万元（11-23）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-20 15:10</t>
+          <t>11-24 07:41</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603348,1248770771.html</t>
+          <t>/news,603348,1250418256.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
+          <t>文灿股份11月22日被沪股通减持1.3万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603348,1248763169.html</t>
+          <t>/news,603348,1249875851.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>文灿股份11月18日获沪股通增持31.34万股</t>
+          <t>文灿股份：融资净偿还116.11万元，融资余额8765.18万元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-19 07:55</t>
+          <t>11-23 07:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603348,1248639042.html</t>
+          <t>/news,603348,1249873140.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
+          <t>文灿股份：公司及控股子公司对外担保为0万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-19 07:34</t>
+          <t>11-22 16:11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603348,1248636153.html</t>
+          <t>/news,603348,1249698760.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>文灿股份11月17日获沪股通增持9.43万股</t>
+          <t>文灿股份11月21日获沪股通增持1.88万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 08:02</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603348,1248155731.html</t>
+          <t>/news,603348,1249348058.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
+          <t>文灿股份：连续5日融资净买入累计6083.73万元（11-21）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,83 +2365,83 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-22 07:34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603348,1248151619.html</t>
+          <t>/news,603348,1249345409.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
+          <t>文灿股份本周融资净买入3826.74万元，居汽车零部件板块第五</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 21:40</t>
+          <t>11-20 15:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603348,1248094679.html</t>
+          <t>/news,603348,1248770771.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>文灿股份11月16日被沪股通减持10.1万股</t>
+          <t>文灿股份本周沪股通持股市值增加2166.54万元，居汽车零部件板块第七</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603348,1247669606.html</t>
+          <t>/news,603348,1248763169.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
+          <t>文灿股份11月18日获沪股通增持31.34万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603348,1247668075.html</t>
+          <t>/news,603348,1248639042.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>文灿股份11月15日被沪股通减持9.97万股</t>
+          <t>文灿股份：连续4日融资净买入累计4156.98万元（11-18）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 07:55</t>
+          <t>11-19 07:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603348,1247176333.html</t>
+          <t>/news,603348,1248636153.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
+          <t>文灿股份11月17日获沪股通增持9.43万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 07:39</t>
+          <t>11-18 08:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603348,1247173664.html</t>
+          <t>/news,603348,1248155731.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>文灿股份11月14日获沪股通增持12.79万股</t>
+          <t>文灿股份：连续3日融资净买入累计2819.08万元（11-17）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 07:55</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603348,1246691159.html</t>
+          <t>/news,603348,1248151619.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
+          <t>华创证券首次给予文灿股份强推评级 目标价90.6元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 07:41</t>
+          <t>11-17 21:40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603348,1246688703.html</t>
+          <t>/news,603348,1248094679.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
+          <t>文灿股份11月16日被沪股通减持10.1万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-14 22:21</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603348,1246644564.html</t>
+          <t>/news,603348,1247669606.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
+          <t>文灿股份：融资净买入286.33万元，融资余额4108.14万元（11-16）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 15:08</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603348,1246099857.html</t>
+          <t>/news,603348,1247668075.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
+          <t>文灿股份11月15日被沪股通减持9.97万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>文灿股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603348,1246094018.html</t>
+          <t>/news,603348,1247176333.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>文灿股份11月11日被沪股通减持40.22万股</t>
+          <t>文灿股份：融资净买入1024.25万元，融资余额3821.81万元（11-15）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-12 07:59</t>
+          <t>11-16 07:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603348,1245988072.html</t>
+          <t>/news,603348,1247173664.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
+          <t>文灿股份11月14日获沪股通增持12.79万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-12 07:34</t>
+          <t>11-15 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603348,1245984607.html</t>
+          <t>/news,603348,1246691159.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>文灿股份11月10日被沪股通减持14.91万股</t>
+          <t>文灿股份：融资净偿还330.25万元，融资余额2797.56万元（11-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 07:48</t>
+          <t>11-15 07:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603348,1245412398.html</t>
+          <t>/news,603348,1246688703.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
+          <t>文灿股份：子公司2466万元在安徽六安拿地 用于开展新能源汽车零部件智能制造项目</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-14 22:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603348,1245410019.html</t>
+          <t>/news,603348,1246644564.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>文灿股份11月09日获沪股通增持11.95万股</t>
+          <t>融资融券周汇总：文灿股份本周融资净买入840.08万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-13 15:08</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603348,1244892881.html</t>
+          <t>/news,603348,1246099857.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>文灿股份：连续3日融资净买入累计1233.76万元（11-09）</t>
+          <t>文灿股份本周沪股通持股市值减少7034.59万元，居汽车零部件板块第三</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>文灿股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 07:34</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603348,1244888008.html</t>
+          <t>/news,603348,1246094018.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入209.72万元，融资余额2806.79万元（11-08）</t>
+          <t>文灿股份11月11日被沪股通减持40.22万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-12 07:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603348,1244428348.html</t>
+          <t>/news,603348,1245988072.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>文灿股份11月08日被沪股通减持6.95万股</t>
+          <t>文灿股份：融资净偿还473.51万元，融资余额3127.81万元（11-11）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 07:48</t>
+          <t>11-12 07:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603348,1244427851.html</t>
+          <t>/news,603348,1245984607.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>文灿股份11月07日被沪股通减持44.31万股</t>
+          <t>文灿股份11月10日被沪股通减持14.91万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-08 07:47</t>
+          <t>11-11 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603348,1243974130.html</t>
+          <t>/news,603348,1245412398.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>文灿股份：融资净买入309.34万元，融资余额2597.07万元（11-07）</t>
+          <t>文灿股份：连续4日融资净买入累计1313.59万元（11-10）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603348,1243971775.html</t>
+          <t>/news,603348,1245410019.html</t>
         </is>
       </c>
     </row>
